--- a/SistemaMedicionCalidad/CapaDePresentacion/Excelnominaa.xlsx
+++ b/SistemaMedicionCalidad/CapaDePresentacion/Excelnominaa.xlsx
@@ -37,9 +37,6 @@
     <t xml:space="preserve">michel.calisto@alumnos.uach.cl                    </t>
   </si>
   <si>
-    <t>USO Y OPTIMIZACION ARQUITECTURA COMPUTACIONAL</t>
-  </si>
-  <si>
     <t>0018734934-6</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">francisco.vargas.sandoval@alumnos.uach.cl         </t>
+  </si>
+  <si>
+    <t>MATEMATICAS I</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,105 +510,105 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/SistemaMedicionCalidad/CapaDePresentacion/Excelnominaa.xlsx
+++ b/SistemaMedicionCalidad/CapaDePresentacion/Excelnominaa.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">francisco.vargas.sandoval@alumnos.uach.cl         </t>
   </si>
   <si>
-    <t>MATEMATICAS I</t>
+    <t>UOACC</t>
   </si>
 </sst>
 </file>
@@ -128,10 +128,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,10 +162,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,11 +476,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -499,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -509,11 +507,11 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -523,11 +521,11 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -537,11 +535,11 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -551,11 +549,11 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -565,11 +563,11 @@
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -579,11 +577,11 @@
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -593,11 +591,11 @@
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -607,7 +605,7 @@
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
